--- a/target/classes/LoginDetails.xlsx
+++ b/target/classes/LoginDetails.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>shankarg3107@gmail.com</t>
+    <t>pleaseentermailid</t>
+  </si>
+  <si>
+    <t>email2</t>
+  </si>
+  <si>
+    <t>email3</t>
   </si>
 </sst>
 </file>
@@ -286,10 +292,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
